--- a/docs/02.설계/20161103/도메인모델_Dodam_dodam_admin_20161103.xlsx
+++ b/docs/02.설계/20161103/도메인모델_Dodam_dodam_admin_20161103.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Dodam_dodam\docs\02.설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Dodam_dodam\docs\02.설계\20161103\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,371 +28,371 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthorityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN, FRONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxlength : 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxlength : 100, contextPath 제외한 경로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일로 변경가부 확인(SNS 회원가입 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthorityApplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPER_ADMIN, ADMIN, GENERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMALE, MALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL, ADMIN, SUPER_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 사이트 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entranceSiteType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiteType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siteType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Menu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPER_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hierarchy구조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류(추후고려)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 : SHA256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안 작성(Dodam_dodam_관리자_v0.1 기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김미라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">String </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthorityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMIN, FRONT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maxlength : 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maxlength : 100, contextPath 제외한 경로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEnabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일로 변경가부 확인(SNS 회원가입 데이터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthorityApplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPER_ADMIN, ADMIN, GENERAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FEMALE, MALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL, ADMIN, SUPER_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registrationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방명록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuestBook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진입 사이트 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entranceSiteType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiteType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siteType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자식 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>children</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Menu&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRONT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENERAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPER_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FEMALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy구조 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류(추후고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화 : SHA256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안 작성(Dodam_dodam_관리자_v0.1 기준)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김미라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +874,7 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -889,16 +889,16 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -906,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="19">
         <v>42677</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
   <dimension ref="B2:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1172,268 +1172,268 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -1450,174 +1450,174 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="D46" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1646,55 +1646,55 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
